--- a/biology/Zoologie/Enicocephalomorpha/Enicocephalomorpha.xlsx
+++ b/biology/Zoologie/Enicocephalomorpha/Enicocephalomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enicocephalomorpha sont un infra-ordre d'Insectes de l'ordre des Hémiptères, du sous-ordre des Hétéroptères (punaises). Ils sont parfois considérés comme le groupe basal du sous-ordre, mais la résolution de cette question demande des études ultérieures.
-Il comprend 425 espèces décrites, réunies en 65 genres, eux-mêmes répartis dans deux familles de répartition principalement tropicales, les Enicocephalidae et les Aenictopecheidae[2]. 
+Il comprend 425 espèces décrites, réunies en 65 genres, eux-mêmes répartis dans deux familles de répartition principalement tropicales, les Enicocephalidae et les Aenictopecheidae. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Enicocephalomorpha se caractérisent par leur tête très allongée, qui semble séparée en deux lobes, car elle présente un étranglement à la hauteur des yeux. Lorsque des ocelles sont présents, ils sont placés sur le lobe postérieur, à bonne distance des yeux. Le rostre, de quatre segments, est court (sa longueur ne dépasse jamais celle de la tête), le plus souvent droit et étendu vers l'avant, plus rarement arqué et replié sous la tête[3]. Les antennes sont longues, flagelliformes, et comptent 4 articles, dont le premier est toujours court. Ces insectes ont des hémélytres, lorsqu'elles sont présentes, légèrement sclérotisées sur toute leur surface qui paraissent ainsi entièrement membraneuses, avec des veines radiale, médiane et cubitale atteignant la marge de l'aile. Certaines espèces présentent un polymorphisme alaire fort, allant des formes macroptères ou submacroptères à des formes fortement brachyptères[4].  Les pattes antérieures sont ravisseuses, avec les fémurs enflés, et le tibia épaissi à l'apex, et le tarse (comprenant 1 ou 2 articles) qui se replie en pince sur la face antérieure du tibia. Leur taille varie entre 2 et 15 mm[2],[5],[6].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Enicocephalomorpha se caractérisent par leur tête très allongée, qui semble séparée en deux lobes, car elle présente un étranglement à la hauteur des yeux. Lorsque des ocelles sont présents, ils sont placés sur le lobe postérieur, à bonne distance des yeux. Le rostre, de quatre segments, est court (sa longueur ne dépasse jamais celle de la tête), le plus souvent droit et étendu vers l'avant, plus rarement arqué et replié sous la tête. Les antennes sont longues, flagelliformes, et comptent 4 articles, dont le premier est toujours court. Ces insectes ont des hémélytres, lorsqu'elles sont présentes, légèrement sclérotisées sur toute leur surface qui paraissent ainsi entièrement membraneuses, avec des veines radiale, médiane et cubitale atteignant la marge de l'aile. Certaines espèces présentent un polymorphisme alaire fort, allant des formes macroptères ou submacroptères à des formes fortement brachyptères.  Les pattes antérieures sont ravisseuses, avec les fémurs enflés, et le tibia épaissi à l'apex, et le tarse (comprenant 1 ou 2 articles) qui se replie en pince sur la face antérieure du tibia. Leur taille varie entre 2 et 15 mm.  
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La majorité des Enicocephalomorpha se rencontre dans les différentes régions tropicales du monde. Elles sont pratiquement toutes endémiques soit de l'hémisphère ouest, soit de l'hémisphère est, avec deux exceptions, le genre Systelloderes, pratiquement cosmopolite[7], et le genre Boreostolus, à distribution holarctique[8].   
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La majorité des Enicocephalomorpha se rencontre dans les différentes régions tropicales du monde. Elles sont pratiquement toutes endémiques soit de l'hémisphère ouest, soit de l'hémisphère est, avec deux exceptions, le genre Systelloderes, pratiquement cosmopolite, et le genre Boreostolus, à distribution holarctique.   
 Quelques genres sont néarctiques, présents au nord de Mexico (Brevidorsus, Hymenocoris, Lysenicocephalus, Urnacephala). Le genre Alienates est présent au sud de l'Amérique du Nord, dans les Caraïbes et jusqu'à Panama au sud.
-Les autres genres américains sont néotropicaux (Tornocrusus, Chiricoris, Enicocephalus, Neoncylocotis, Xenicocephalus, ainsi que des genres non encore décrits), avec un genre subantarctique, du sud du Chili (Gamostolus)[8].
-La faune afrotropicale est très riche, et un autre centre d'endémisme, distinct des espèces africaines, se rencontre à Madagascar et dans l'océan indien[8].
-La région indomalaise (sud-est asiatique) est la plus riche en espèces, mais un grand nombre d'espèces, y compris non encore décrites, se rencontrent dans la zone papouasie, et dans la région australienne et de Tasmanie, et il existe un autre genre subantarctique présent aux îles Crozet, Phthirocoris[8].
-Une seule espèce actuelle a été rencontrée en Europe, Henschiella pellucida, rencontrée entre la Bosnie-Hérzégovine et l'Asie centrale[9],[10].
-Une demi-douzaine d'autres espèces sont présentes dans le paléarctique ouest, toutes dans sa frange sud, avec Oncylocotis occipitalis en Égypte et O. basalis au Yémen, Vuorilinna carayoni en Arabie saoudite, et trois espèces de Systelloderes du groupe de S. uvarovi, S. uvarovi et S. utukhengai d'Irak, et S. iranicus d'Iran[9].</t>
+Les autres genres américains sont néotropicaux (Tornocrusus, Chiricoris, Enicocephalus, Neoncylocotis, Xenicocephalus, ainsi que des genres non encore décrits), avec un genre subantarctique, du sud du Chili (Gamostolus).
+La faune afrotropicale est très riche, et un autre centre d'endémisme, distinct des espèces africaines, se rencontre à Madagascar et dans l'océan indien.
+La région indomalaise (sud-est asiatique) est la plus riche en espèces, mais un grand nombre d'espèces, y compris non encore décrites, se rencontrent dans la zone papouasie, et dans la région australienne et de Tasmanie, et il existe un autre genre subantarctique présent aux îles Crozet, Phthirocoris.
+Une seule espèce actuelle a été rencontrée en Europe, Henschiella pellucida, rencontrée entre la Bosnie-Hérzégovine et l'Asie centrale,.
+Une demi-douzaine d'autres espèces sont présentes dans le paléarctique ouest, toutes dans sa frange sud, avec Oncylocotis occipitalis en Égypte et O. basalis au Yémen, Vuorilinna carayoni en Arabie saoudite, et trois espèces de Systelloderes du groupe de S. uvarovi, S. uvarovi et S. utukhengai d'Irak, et S. iranicus d'Iran.</t>
         </is>
       </c>
     </row>
